--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="445">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-12T17:57:03+00:00</t>
+    <t>2022-12-16T11:59:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>Structure.ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -1704,7 +1707,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP51"/>
+  <dimension ref="A1:AQ51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1715,15 +1718,15 @@
   <cols>
     <col min="1" max="1" width="23.53125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="44.67578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.11328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1732,36 +1735,36 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.5078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.97265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.70703125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="59.5078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="97.1171875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="97.1171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>2</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>36</v>
@@ -1882,6 +1885,9 @@
       </c>
       <c r="AP1" t="s" s="1">
         <v>75</v>
+      </c>
+      <c r="AQ1" t="s" s="1">
+        <v>76</v>
       </c>
     </row>
     <row r="2">
@@ -1891,14 +1897,14 @@
       <c r="B2" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" t="s" s="2">
+      <c r="C2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
         <v>77</v>
       </c>
+      <c r="F2" s="2"/>
       <c r="G2" t="s" s="2">
         <v>78</v>
       </c>
@@ -1906,13 +1912,13 @@
         <v>79</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>80</v>
@@ -1923,58 +1929,58 @@
       <c r="N2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O2" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R2" s="2"/>
       <c r="S2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
         <v>78</v>
@@ -1983,10 +1989,10 @@
         <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>84</v>
@@ -1998,10 +2004,13 @@
         <v>86</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ2" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -2009,27 +2018,27 @@
         <v>3</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F3" s="2"/>
       <c r="G3" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>90</v>
@@ -2043,85 +2052,88 @@
       <c r="N3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O3" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R3" s="2"/>
       <c r="S3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ3" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -2129,30 +2141,30 @@
         <v>3</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>97</v>
@@ -2160,86 +2172,89 @@
       <c r="M4" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="N4" s="2"/>
+      <c r="N4" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="O4" s="2"/>
-      <c r="P4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R4" s="2"/>
       <c r="S4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ4" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="5">
@@ -2247,30 +2262,30 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s" s="2">
         <v>103</v>
@@ -2281,85 +2296,88 @@
       <c r="N5" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O5" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R5" s="2"/>
       <c r="S5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AP5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ5" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -2367,30 +2385,30 @@
         <v>3</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s" s="2">
         <v>109</v>
@@ -2401,31 +2419,31 @@
       <c r="N6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R6" s="2"/>
       <c r="S6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y6" t="s" s="2">
         <v>113</v>
@@ -2434,52 +2452,55 @@
         <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AP6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ6" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -2487,30 +2508,30 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="C7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>119</v>
@@ -2521,85 +2542,88 @@
       <c r="N7" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R7" s="2"/>
       <c r="S7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="AP7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ7" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -2607,16 +2631,16 @@
         <v>3</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="C8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" t="s" s="2">
         <v>78</v>
       </c>
@@ -2624,13 +2648,13 @@
         <v>79</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="L8" t="s" s="2">
         <v>127</v>
@@ -2641,58 +2665,58 @@
       <c r="N8" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="P8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O8" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R8" s="2"/>
       <c r="S8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>78</v>
@@ -2701,25 +2725,28 @@
         <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ8" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -2727,16 +2754,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="C9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" t="s" s="2">
         <v>78</v>
       </c>
@@ -2744,13 +2771,13 @@
         <v>79</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>135</v>
@@ -2761,58 +2788,58 @@
       <c r="N9" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="O9" s="2"/>
-      <c r="P9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O9" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R9" s="2"/>
       <c r="S9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>78</v>
@@ -2821,25 +2848,28 @@
         <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ9" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -2847,16 +2877,16 @@
         <v>3</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="F10" s="2"/>
       <c r="G10" t="s" s="2">
         <v>78</v>
       </c>
@@ -2864,77 +2894,77 @@
         <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M10" t="s" s="2">
         <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="Q10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R10" s="2"/>
       <c r="S10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>78</v>
@@ -2943,25 +2973,28 @@
         <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ10" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -2969,16 +3002,16 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" t="s" s="2">
         <v>78</v>
       </c>
@@ -2986,13 +3019,13 @@
         <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>147</v>
@@ -3000,61 +3033,61 @@
       <c r="M11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>149</v>
       </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Q11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R11" s="2"/>
       <c r="S11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>78</v>
@@ -3063,16 +3096,16 @@
         <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>152</v>
@@ -3081,7 +3114,10 @@
         <v>153</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
+      </c>
+      <c r="AQ11" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -3089,16 +3125,16 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="C12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" t="s" s="2">
         <v>78</v>
       </c>
@@ -3106,13 +3142,13 @@
         <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>157</v>
@@ -3120,61 +3156,61 @@
       <c r="M12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>159</v>
       </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R12" s="2"/>
       <c r="S12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>78</v>
@@ -3183,25 +3219,28 @@
         <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>162</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ12" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="13">
@@ -3209,16 +3248,16 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="C13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3226,13 +3265,13 @@
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>166</v>
@@ -3243,58 +3282,58 @@
       <c r="N13" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="O13" s="2"/>
-      <c r="P13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O13" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R13" s="2"/>
       <c r="S13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>78</v>
@@ -3303,25 +3342,28 @@
         <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>169</v>
+        <v>101</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>171</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ13" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="14">
@@ -3329,33 +3371,33 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="M14" t="s" s="2">
         <v>174</v>
@@ -3367,29 +3409,29 @@
         <v>176</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Q14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R14" s="2"/>
       <c r="S14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>178</v>
@@ -3398,37 +3440,37 @@
         <v>179</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>181</v>
@@ -3443,7 +3485,10 @@
         <v>184</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>79</v>
+        <v>185</v>
+      </c>
+      <c r="AQ14" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="15">
@@ -3451,16 +3496,16 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F15" s="2"/>
       <c r="G15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3468,13 +3513,13 @@
         <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>187</v>
@@ -3489,54 +3534,54 @@
         <v>190</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Q15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R15" s="2"/>
       <c r="S15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y15" s="2"/>
-      <c r="Z15" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Z15" s="2"/>
       <c r="AA15" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>78</v>
@@ -3545,25 +3590,28 @@
         <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>193</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
+      </c>
+      <c r="AQ15" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="16">
@@ -3571,33 +3619,33 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" t="s" s="2">
-        <v>88</v>
-      </c>
+      <c r="C16" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="F16" s="2"/>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>197</v>
@@ -3609,66 +3657,66 @@
         <v>199</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q16" s="2"/>
-      <c r="R16" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="Q16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R16" s="2"/>
       <c r="S16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y16" s="2"/>
-      <c r="Z16" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Z16" s="2"/>
       <c r="AA16" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>202</v>
@@ -3684,6 +3732,9 @@
       </c>
       <c r="AP16" t="s" s="2">
         <v>206</v>
+      </c>
+      <c r="AQ16" t="s" s="2">
+        <v>207</v>
       </c>
     </row>
     <row r="17">
@@ -3691,30 +3742,30 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F17" s="2"/>
       <c r="G17" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>208</v>
+        <v>90</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>209</v>
@@ -3729,74 +3780,74 @@
         <v>212</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q17" s="2"/>
-      <c r="R17" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="Q17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R17" s="2"/>
       <c r="S17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>213</v>
+        <v>101</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>215</v>
@@ -3805,7 +3856,10 @@
         <v>216</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
+      </c>
+      <c r="AQ17" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -3813,16 +3867,16 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F18" s="2"/>
       <c r="G18" t="s" s="2">
         <v>78</v>
       </c>
@@ -3830,13 +3884,13 @@
         <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>218</v>
+        <v>90</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>219</v>
@@ -3847,58 +3901,58 @@
       <c r="N18" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="O18" s="2"/>
-      <c r="P18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q18" s="2"/>
-      <c r="R18" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O18" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R18" s="2"/>
       <c r="S18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>78</v>
@@ -3907,25 +3961,28 @@
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
+      </c>
+      <c r="AQ18" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="19">
@@ -3933,30 +3990,30 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="C19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="F19" s="2"/>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>226</v>
@@ -3971,74 +4028,74 @@
         <v>229</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q19" s="2"/>
-      <c r="R19" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="Q19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R19" s="2"/>
       <c r="S19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>231</v>
+        <v>80</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>232</v>
@@ -4047,7 +4104,10 @@
         <v>233</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
+      </c>
+      <c r="AQ19" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="20">
@@ -4055,30 +4115,30 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="C20" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="F20" s="2"/>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>236</v>
+        <v>90</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>237</v>
@@ -4093,74 +4153,74 @@
         <v>240</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q20" s="2"/>
-      <c r="R20" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="Q20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R20" s="2"/>
       <c r="S20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>241</v>
+        <v>101</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>243</v>
@@ -4169,7 +4229,10 @@
         <v>244</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>79</v>
+        <v>245</v>
+      </c>
+      <c r="AQ20" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="21">
@@ -4177,30 +4240,30 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F21" s="2"/>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>246</v>
+        <v>90</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>247</v>
@@ -4211,76 +4274,76 @@
       <c r="N21" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="O21" s="2"/>
-      <c r="P21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q21" s="2"/>
-      <c r="R21" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O21" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R21" s="2"/>
       <c r="S21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>251</v>
@@ -4289,7 +4352,10 @@
         <v>252</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
+      </c>
+      <c r="AQ21" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="22">
@@ -4297,16 +4363,16 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F22" s="2"/>
       <c r="G22" t="s" s="2">
         <v>78</v>
       </c>
@@ -4314,13 +4380,13 @@
         <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>254</v>
+        <v>90</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>255</v>
@@ -4328,61 +4394,61 @@
       <c r="M22" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>257</v>
       </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q22" s="2"/>
-      <c r="R22" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="Q22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R22" s="2"/>
       <c r="S22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>78</v>
@@ -4391,16 +4457,16 @@
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>260</v>
@@ -4409,7 +4475,10 @@
         <v>261</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>79</v>
+        <v>262</v>
+      </c>
+      <c r="AQ22" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="23">
@@ -4417,30 +4486,30 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F23" s="2"/>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>263</v>
+        <v>90</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>264</v>
@@ -4455,71 +4524,71 @@
         <v>267</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q23" s="2"/>
-      <c r="R23" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="Q23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R23" s="2"/>
       <c r="S23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>268</v>
+        <v>89</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>269</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>270</v>
@@ -4528,10 +4597,13 @@
         <v>271</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>272</v>
+        <v>80</v>
+      </c>
+      <c r="AQ23" t="s" s="2">
+        <v>273</v>
       </c>
     </row>
     <row r="24">
@@ -4539,33 +4611,33 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F24" s="2"/>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>274</v>
+        <v>187</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>275</v>
@@ -4577,29 +4649,29 @@
         <v>277</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q24" s="2"/>
-      <c r="R24" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="Q24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R24" s="2"/>
       <c r="S24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="s" s="2">
         <v>279</v>
@@ -4608,52 +4680,55 @@
         <v>280</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>281</v>
+        <v>89</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>282</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>282</v>
+        <v>132</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ24" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="25">
@@ -4661,16 +4736,16 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="C25" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="F25" s="2"/>
       <c r="G25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4678,16 +4753,16 @@
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>285</v>
+        <v>187</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>286</v>
@@ -4699,56 +4774,56 @@
         <v>288</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q25" s="2"/>
-      <c r="R25" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="Q25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R25" s="2"/>
       <c r="S25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>290</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>78</v>
@@ -4757,13 +4832,13 @@
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>292</v>
@@ -4772,10 +4847,13 @@
         <v>293</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
+      </c>
+      <c r="AQ25" t="s" s="2">
+        <v>295</v>
       </c>
     </row>
     <row r="26">
@@ -4783,16 +4861,16 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F26" s="2"/>
       <c r="G26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4800,13 +4878,13 @@
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>297</v>
@@ -4821,56 +4899,56 @@
         <v>300</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q26" s="2"/>
-      <c r="R26" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="Q26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R26" s="2"/>
       <c r="S26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>78</v>
@@ -4879,25 +4957,28 @@
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>302</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ26" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="27">
@@ -4905,33 +4986,33 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F27" s="2"/>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>304</v>
+        <v>187</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>305</v>
@@ -4939,31 +5020,31 @@
       <c r="N27" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="O27" s="2"/>
-      <c r="P27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q27" s="2"/>
-      <c r="R27" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O27" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R27" s="2"/>
       <c r="S27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
         <v>308</v>
@@ -4972,40 +5053,40 @@
         <v>309</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>311</v>
@@ -5014,10 +5095,13 @@
         <v>312</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>313</v>
+        <v>80</v>
+      </c>
+      <c r="AQ27" t="s" s="2">
+        <v>314</v>
       </c>
     </row>
     <row r="28">
@@ -5025,33 +5109,33 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F28" s="2"/>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>315</v>
+        <v>187</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>316</v>
@@ -5063,83 +5147,86 @@
         <v>318</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q28" s="2"/>
-      <c r="R28" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="Q28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R28" s="2"/>
       <c r="S28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>320</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>321</v>
+        <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>322</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ28" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="29">
@@ -5147,30 +5234,30 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F29" s="2"/>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>324</v>
+        <v>80</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>325</v>
@@ -5181,73 +5268,73 @@
       <c r="N29" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="O29" s="2"/>
-      <c r="P29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q29" s="2"/>
-      <c r="R29" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O29" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R29" s="2"/>
       <c r="S29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>323</v>
+        <v>80</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>328</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>329</v>
@@ -5256,10 +5343,13 @@
         <v>330</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
+      </c>
+      <c r="AQ29" t="s" s="2">
+        <v>332</v>
       </c>
     </row>
     <row r="30">
@@ -5267,30 +5357,30 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F30" s="2"/>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>333</v>
+        <v>80</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>334</v>
@@ -5301,73 +5391,73 @@
       <c r="N30" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="O30" s="2"/>
-      <c r="P30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q30" s="2"/>
-      <c r="R30" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O30" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R30" s="2"/>
       <c r="S30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>337</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>338</v>
@@ -5376,10 +5466,13 @@
         <v>339</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>340</v>
+        <v>80</v>
+      </c>
+      <c r="AQ30" t="s" s="2">
+        <v>341</v>
       </c>
     </row>
     <row r="31">
@@ -5387,16 +5480,16 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F31" s="2"/>
       <c r="G31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5404,13 +5497,13 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>343</v>
@@ -5425,56 +5518,56 @@
         <v>346</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q31" s="2"/>
-      <c r="R31" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="Q31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R31" s="2"/>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>78</v>
@@ -5483,25 +5576,28 @@
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>347</v>
+        <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>348</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>349</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ31" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="32">
@@ -5509,30 +5605,30 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F32" s="2"/>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>352</v>
@@ -5540,86 +5636,89 @@
       <c r="M32" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O32" s="2"/>
-      <c r="P32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q32" s="2"/>
-      <c r="R32" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R32" s="2"/>
       <c r="S32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ32" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="33">
@@ -5627,16 +5726,16 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="F33" s="2"/>
       <c r="G33" t="s" s="2">
         <v>78</v>
       </c>
@@ -5644,75 +5743,75 @@
         <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>135</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>357</v>
+        <v>136</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O33" s="2"/>
-      <c r="P33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q33" s="2"/>
-      <c r="R33" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R33" s="2"/>
       <c r="S33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>78</v>
@@ -5721,25 +5820,28 @@
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ33" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -5747,16 +5849,16 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="C34" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="F34" s="2"/>
       <c r="G34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5764,77 +5866,77 @@
         <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>361</v>
+        <v>135</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>362</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>137</v>
+        <v>363</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="Q34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R34" s="2"/>
       <c r="S34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>364</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>78</v>
@@ -5843,25 +5945,28 @@
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ34" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="35">
@@ -5869,30 +5974,30 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F35" s="2"/>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>366</v>
@@ -5900,86 +6005,89 @@
       <c r="M35" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="N35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="O35" s="2"/>
-      <c r="P35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R35" s="2"/>
       <c r="S35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>364</v>
+        <v>80</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>368</v>
+        <v>89</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>369</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>369</v>
+        <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>370</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ35" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="36">
@@ -5987,117 +6095,120 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F36" s="2"/>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="N36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O36" s="2"/>
-      <c r="P36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R36" s="2"/>
       <c r="S36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>368</v>
+        <v>89</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>369</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>369</v>
+        <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ36" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="37">
@@ -6105,33 +6216,33 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F37" s="2"/>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>376</v>
+        <v>187</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>377</v>
@@ -6143,83 +6254,86 @@
         <v>379</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="Q37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R37" s="2"/>
       <c r="S37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>380</v>
+        <v>113</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>381</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>79</v>
+        <v>382</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>376</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>382</v>
+        <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>383</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>293</v>
+        <v>384</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ37" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="38">
@@ -6227,16 +6341,16 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F38" s="2"/>
       <c r="G38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6244,16 +6358,16 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>385</v>
+        <v>187</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>386</v>
@@ -6265,56 +6379,56 @@
         <v>388</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="Q38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R38" s="2"/>
       <c r="S38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>389</v>
+        <v>308</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>390</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>79</v>
+        <v>391</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>78</v>
@@ -6323,25 +6437,28 @@
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>382</v>
+        <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>383</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>293</v>
+        <v>384</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ38" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="39">
@@ -6349,30 +6466,30 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F39" s="2"/>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>393</v>
@@ -6380,88 +6497,91 @@
       <c r="M39" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>395</v>
       </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="Q39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R39" s="2"/>
       <c r="S39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>391</v>
+        <v>80</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>392</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ39" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="40">
@@ -6469,117 +6589,120 @@
         <v>3</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F40" s="2"/>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="N40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O40" s="2"/>
-      <c r="P40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R40" s="2"/>
       <c r="S40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>398</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>369</v>
+        <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>79</v>
+        <v>401</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ40" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="41">
@@ -6587,16 +6710,16 @@
         <v>3</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F41" s="2"/>
       <c r="G41" t="s" s="2">
         <v>78</v>
       </c>
@@ -6604,13 +6727,13 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>402</v>
+        <v>90</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>403</v>
@@ -6621,58 +6744,58 @@
       <c r="N41" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="O41" s="2"/>
-      <c r="P41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O41" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R41" s="2"/>
       <c r="S41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>401</v>
+        <v>80</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>402</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>78</v>
@@ -6681,25 +6804,28 @@
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>406</v>
+        <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>407</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>79</v>
+        <v>408</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ41" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="42">
@@ -6707,16 +6833,16 @@
         <v>3</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F42" s="2"/>
       <c r="G42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6724,13 +6850,13 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>409</v>
+        <v>90</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>410</v>
@@ -6741,58 +6867,58 @@
       <c r="N42" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="O42" s="2"/>
-      <c r="P42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O42" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R42" s="2"/>
       <c r="S42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>408</v>
+        <v>80</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>409</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>78</v>
@@ -6801,25 +6927,28 @@
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>406</v>
+        <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>79</v>
+        <v>414</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ42" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="43">
@@ -6827,16 +6956,16 @@
         <v>3</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F43" s="2"/>
       <c r="G43" t="s" s="2">
         <v>78</v>
       </c>
@@ -6844,16 +6973,16 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>342</v>
+        <v>90</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>415</v>
+        <v>343</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>416</v>
@@ -6865,56 +6994,56 @@
         <v>418</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="Q43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R43" s="2"/>
       <c r="S43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>414</v>
+        <v>80</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>77</v>
+        <v>415</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>78</v>
@@ -6923,25 +7052,28 @@
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>419</v>
+        <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>420</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ43" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="44">
@@ -6949,30 +7081,30 @@
         <v>3</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F44" s="2"/>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>352</v>
@@ -6980,86 +7112,89 @@
       <c r="M44" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="N44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O44" s="2"/>
-      <c r="P44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R44" s="2"/>
       <c r="S44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ44" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="45">
@@ -7067,16 +7202,16 @@
         <v>3</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="F45" s="2"/>
       <c r="G45" t="s" s="2">
         <v>78</v>
       </c>
@@ -7084,75 +7219,75 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>135</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>357</v>
+        <v>136</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O45" s="2"/>
-      <c r="P45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q45" s="2"/>
-      <c r="R45" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R45" s="2"/>
       <c r="S45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>78</v>
@@ -7161,25 +7296,28 @@
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ45" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="46">
@@ -7187,16 +7325,16 @@
         <v>3</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="F46" s="2"/>
       <c r="G46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7204,77 +7342,77 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>361</v>
+        <v>135</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>362</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>137</v>
+        <v>363</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="Q46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R46" s="2"/>
       <c r="S46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>364</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>78</v>
@@ -7283,25 +7421,28 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ46" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="47">
@@ -7309,33 +7450,33 @@
         <v>3</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F47" s="2"/>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>425</v>
+        <v>187</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>426</v>
@@ -7344,77 +7485,77 @@
         <v>427</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>199</v>
+        <v>428</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="Q47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R47" s="2"/>
       <c r="S47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>428</v>
+        <v>308</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>429</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>424</v>
+        <v>80</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>88</v>
+        <v>425</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>430</v>
+        <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>203</v>
+        <v>431</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>204</v>
@@ -7423,7 +7564,10 @@
         <v>205</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
+      </c>
+      <c r="AQ47" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="48">
@@ -7431,121 +7575,124 @@
         <v>3</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F48" s="2"/>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>432</v>
+        <v>90</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>433</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>265</v>
+        <v>434</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>434</v>
+        <v>266</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>267</v>
+        <v>435</v>
       </c>
       <c r="P48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="Q48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R48" s="2"/>
       <c r="S48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>431</v>
+        <v>80</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>77</v>
+        <v>432</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>435</v>
+        <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>270</v>
+        <v>436</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>271</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>272</v>
+        <v>80</v>
+      </c>
+      <c r="AQ48" t="s" s="2">
+        <v>273</v>
       </c>
     </row>
     <row r="49">
@@ -7553,33 +7700,33 @@
         <v>3</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F49" s="2"/>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>437</v>
+        <v>187</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>438</v>
@@ -7588,32 +7735,32 @@
         <v>439</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>277</v>
+        <v>440</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="Q49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R49" s="2"/>
       <c r="S49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="Y49" t="s" s="2">
         <v>279</v>
@@ -7622,52 +7769,55 @@
         <v>280</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>436</v>
+        <v>80</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>77</v>
+        <v>437</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>281</v>
+        <v>89</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>282</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>282</v>
+        <v>132</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ49" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="50">
@@ -7675,16 +7825,16 @@
         <v>3</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="F50" s="2"/>
       <c r="G50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7692,16 +7842,16 @@
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>285</v>
+        <v>187</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>286</v>
@@ -7713,56 +7863,56 @@
         <v>288</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="Q50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R50" s="2"/>
       <c r="S50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>290</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>440</v>
+        <v>80</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>77</v>
+        <v>441</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>78</v>
@@ -7771,13 +7921,13 @@
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>292</v>
@@ -7786,10 +7936,13 @@
         <v>293</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
+      </c>
+      <c r="AQ50" t="s" s="2">
+        <v>295</v>
       </c>
     </row>
     <row r="51">
@@ -7797,16 +7950,16 @@
         <v>3</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F51" s="2"/>
       <c r="G51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7814,77 +7967,77 @@
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>442</v>
+        <v>80</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>443</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>345</v>
+        <v>444</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>346</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="Q51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R51" s="2"/>
       <c r="S51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>441</v>
+        <v>80</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>77</v>
+        <v>442</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
@@ -7893,25 +8046,28 @@
         <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>349</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AQ51" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:59:02+00:00</t>
+    <t>2022-12-19T11:15:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T11:15:45+00:00</t>
+    <t>2022-12-19T11:40:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T11:40:17+00:00</t>
+    <t>2022-12-19T12:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T12:04:36+00:00</t>
+    <t>2022-12-19T12:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T12:18:39+00:00</t>
+    <t>2022-12-19T12:29:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T12:29:59+00:00</t>
+    <t>2022-12-19T12:45:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T12:45:40+00:00</t>
+    <t>2022-12-19T13:05:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T13:05:58+00:00</t>
+    <t>2022-12-19T13:47:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T13:47:37+00:00</t>
+    <t>2022-12-19T13:53:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T13:53:43+00:00</t>
+    <t>2022-12-19T15:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T15:00:29+00:00</t>
+    <t>2022-12-21T15:23:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T15:23:43+00:00</t>
+    <t>2022-12-21T16:14:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T16:14:14+00:00</t>
+    <t>2022-12-22T14:28:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="446">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-22T14:28:26+00:00</t>
+    <t>2023-01-09T16:27:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -257,6 +257,10 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Measurements and simple assertions</t>
@@ -1921,16 +1925,16 @@
         <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
@@ -1995,16 +1999,16 @@
         <v>80</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP2" t="s" s="2">
         <v>80</v>
@@ -2018,10 +2022,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
@@ -2032,7 +2036,7 @@
         <v>78</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>80</v>
@@ -2041,19 +2045,19 @@
         <v>80</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
@@ -2103,13 +2107,13 @@
         <v>80</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ3" t="s" s="2">
         <v>80</v>
@@ -2141,10 +2145,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -2155,7 +2159,7 @@
         <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>80</v>
@@ -2164,16 +2168,16 @@
         <v>80</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -2224,19 +2228,19 @@
         <v>80</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>80</v>
@@ -2262,10 +2266,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -2276,28 +2280,28 @@
         <v>78</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
@@ -2347,19 +2351,19 @@
         <v>80</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>80</v>
@@ -2385,10 +2389,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2399,7 +2403,7 @@
         <v>78</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>80</v>
@@ -2411,16 +2415,16 @@
         <v>80</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
@@ -2446,13 +2450,13 @@
         <v>80</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB6" t="s" s="2">
         <v>80</v>
@@ -2470,19 +2474,19 @@
         <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>80</v>
@@ -2508,21 +2512,21 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>80</v>
@@ -2534,16 +2538,16 @@
         <v>80</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
@@ -2593,19 +2597,19 @@
         <v>80</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>80</v>
@@ -2617,7 +2621,7 @@
         <v>80</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AP7" t="s" s="2">
         <v>80</v>
@@ -2631,14 +2635,14 @@
         <v>3</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" t="s" s="2">
@@ -2657,16 +2661,16 @@
         <v>80</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
@@ -2716,7 +2720,7 @@
         <v>80</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>78</v>
@@ -2740,7 +2744,7 @@
         <v>80</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AP8" t="s" s="2">
         <v>80</v>
@@ -2754,14 +2758,14 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" t="s" s="2">
@@ -2780,16 +2784,16 @@
         <v>80</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
@@ -2839,7 +2843,7 @@
         <v>80</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>78</v>
@@ -2851,7 +2855,7 @@
         <v>80</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>80</v>
@@ -2863,7 +2867,7 @@
         <v>80</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AP9" t="s" s="2">
         <v>80</v>
@@ -2877,14 +2881,14 @@
         <v>3</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" t="s" s="2">
@@ -2897,25 +2901,25 @@
         <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q10" t="s" s="2">
         <v>80</v>
@@ -2964,7 +2968,7 @@
         <v>80</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>78</v>
@@ -2976,7 +2980,7 @@
         <v>80</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>80</v>
@@ -2988,7 +2992,7 @@
         <v>80</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>80</v>
@@ -3002,10 +3006,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3025,20 +3029,20 @@
         <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q11" t="s" s="2">
         <v>80</v>
@@ -3087,7 +3091,7 @@
         <v>80</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>78</v>
@@ -3099,22 +3103,22 @@
         <v>80</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AQ11" t="s" s="2">
         <v>80</v>
@@ -3125,14 +3129,14 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" t="s" s="2">
@@ -3148,20 +3152,20 @@
         <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q12" t="s" s="2">
         <v>80</v>
@@ -3210,7 +3214,7 @@
         <v>80</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>78</v>
@@ -3222,19 +3226,19 @@
         <v>80</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>80</v>
@@ -3248,14 +3252,14 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="s" s="2">
@@ -3271,19 +3275,19 @@
         <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
@@ -3333,7 +3337,7 @@
         <v>80</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>78</v>
@@ -3345,19 +3349,19 @@
         <v>80</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>80</v>
@@ -3371,10 +3375,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3382,34 +3386,34 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q14" t="s" s="2">
         <v>80</v>
@@ -3434,13 +3438,13 @@
         <v>80</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AB14" t="s" s="2">
         <v>80</v>
@@ -3458,34 +3462,34 @@
         <v>80</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AQ14" t="s" s="2">
         <v>80</v>
@@ -3496,10 +3500,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3522,19 +3526,19 @@
         <v>80</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q15" t="s" s="2">
         <v>80</v>
@@ -3559,11 +3563,11 @@
         <v>80</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AB15" t="s" s="2">
         <v>80</v>
@@ -3581,7 +3585,7 @@
         <v>80</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>78</v>
@@ -3593,7 +3597,7 @@
         <v>80</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>80</v>
@@ -3605,10 +3609,10 @@
         <v>80</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AQ15" t="s" s="2">
         <v>80</v>
@@ -3619,21 +3623,21 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>80</v>
@@ -3642,22 +3646,22 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q16" t="s" s="2">
         <v>80</v>
@@ -3682,11 +3686,11 @@
         <v>80</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AB16" t="s" s="2">
         <v>80</v>
@@ -3704,37 +3708,37 @@
         <v>80</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AQ16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17">
@@ -3742,10 +3746,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3756,7 +3760,7 @@
         <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>80</v>
@@ -3765,22 +3769,22 @@
         <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q17" t="s" s="2">
         <v>80</v>
@@ -3829,34 +3833,34 @@
         <v>80</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ17" t="s" s="2">
         <v>80</v>
@@ -3867,10 +3871,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3890,19 +3894,19 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
@@ -3952,7 +3956,7 @@
         <v>80</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>78</v>
@@ -3964,7 +3968,7 @@
         <v>80</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>80</v>
@@ -3973,13 +3977,13 @@
         <v>80</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ18" t="s" s="2">
         <v>80</v>
@@ -3990,21 +3994,21 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>80</v>
@@ -4013,22 +4017,22 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q19" t="s" s="2">
         <v>80</v>
@@ -4077,34 +4081,34 @@
         <v>80</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AQ19" t="s" s="2">
         <v>80</v>
@@ -4115,21 +4119,21 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>80</v>
@@ -4138,22 +4142,22 @@
         <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q20" t="s" s="2">
         <v>80</v>
@@ -4202,34 +4206,34 @@
         <v>80</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AQ20" t="s" s="2">
         <v>80</v>
@@ -4240,10 +4244,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4254,7 +4258,7 @@
         <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>80</v>
@@ -4263,19 +4267,19 @@
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
@@ -4325,19 +4329,19 @@
         <v>80</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>80</v>
@@ -4346,13 +4350,13 @@
         <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AQ21" t="s" s="2">
         <v>80</v>
@@ -4363,10 +4367,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4386,20 +4390,20 @@
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q22" t="s" s="2">
         <v>80</v>
@@ -4448,7 +4452,7 @@
         <v>80</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>78</v>
@@ -4460,22 +4464,22 @@
         <v>80</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AQ22" t="s" s="2">
         <v>80</v>
@@ -4486,10 +4490,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4500,7 +4504,7 @@
         <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>80</v>
@@ -4509,22 +4513,22 @@
         <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q23" t="s" s="2">
         <v>80</v>
@@ -4573,37 +4577,37 @@
         <v>80</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24">
@@ -4611,10 +4615,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4625,7 +4629,7 @@
         <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>80</v>
@@ -4637,19 +4641,19 @@
         <v>80</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q24" t="s" s="2">
         <v>80</v>
@@ -4674,13 +4678,13 @@
         <v>80</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AB24" t="s" s="2">
         <v>80</v>
@@ -4698,19 +4702,19 @@
         <v>80</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>80</v>
@@ -4719,10 +4723,10 @@
         <v>80</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>80</v>
@@ -4736,14 +4740,14 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" t="s" s="2">
@@ -4762,19 +4766,19 @@
         <v>80</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q25" t="s" s="2">
         <v>80</v>
@@ -4799,13 +4803,13 @@
         <v>80</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AB25" t="s" s="2">
         <v>80</v>
@@ -4823,7 +4827,7 @@
         <v>80</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>78</v>
@@ -4835,25 +4839,25 @@
         <v>80</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ25" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26">
@@ -4861,10 +4865,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4887,19 +4891,19 @@
         <v>80</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q26" t="s" s="2">
         <v>80</v>
@@ -4948,7 +4952,7 @@
         <v>80</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>78</v>
@@ -4960,7 +4964,7 @@
         <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>80</v>
@@ -4969,10 +4973,10 @@
         <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>80</v>
@@ -4986,10 +4990,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5012,16 +5016,16 @@
         <v>80</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
@@ -5047,13 +5051,13 @@
         <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AB27" t="s" s="2">
         <v>80</v>
@@ -5071,37 +5075,37 @@
         <v>80</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28">
@@ -5109,10 +5113,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5123,7 +5127,7 @@
         <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>80</v>
@@ -5135,19 +5139,19 @@
         <v>80</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q28" t="s" s="2">
         <v>80</v>
@@ -5172,13 +5176,13 @@
         <v>80</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AB28" t="s" s="2">
         <v>80</v>
@@ -5196,19 +5200,19 @@
         <v>80</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
@@ -5217,10 +5221,10 @@
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>80</v>
@@ -5234,10 +5238,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5260,16 +5264,16 @@
         <v>80</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
@@ -5319,37 +5323,37 @@
         <v>80</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ29" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30">
@@ -5357,10 +5361,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5371,7 +5375,7 @@
         <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>80</v>
@@ -5383,16 +5387,16 @@
         <v>80</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
@@ -5442,37 +5446,37 @@
         <v>80</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31">
@@ -5480,10 +5484,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5506,19 +5510,19 @@
         <v>80</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q31" t="s" s="2">
         <v>80</v>
@@ -5567,7 +5571,7 @@
         <v>80</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>78</v>
@@ -5579,7 +5583,7 @@
         <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>80</v>
@@ -5588,10 +5592,10 @@
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>80</v>
@@ -5605,10 +5609,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5619,7 +5623,7 @@
         <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>80</v>
@@ -5631,13 +5635,13 @@
         <v>80</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -5688,13 +5692,13 @@
         <v>80</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>80</v>
@@ -5712,7 +5716,7 @@
         <v>80</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>80</v>
@@ -5726,14 +5730,14 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" t="s" s="2">
@@ -5752,16 +5756,16 @@
         <v>80</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
@@ -5811,7 +5815,7 @@
         <v>80</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>78</v>
@@ -5823,7 +5827,7 @@
         <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
@@ -5835,7 +5839,7 @@
         <v>80</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>80</v>
@@ -5849,14 +5853,14 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" t="s" s="2">
@@ -5869,25 +5873,25 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q34" t="s" s="2">
         <v>80</v>
@@ -5936,7 +5940,7 @@
         <v>80</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>78</v>
@@ -5948,7 +5952,7 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
@@ -5960,7 +5964,7 @@
         <v>80</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>80</v>
@@ -5974,10 +5978,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5988,7 +5992,7 @@
         <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>80</v>
@@ -6000,13 +6004,13 @@
         <v>80</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -6057,19 +6061,19 @@
         <v>80</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
@@ -6078,10 +6082,10 @@
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>80</v>
@@ -6095,10 +6099,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6109,7 +6113,7 @@
         <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>80</v>
@@ -6121,13 +6125,13 @@
         <v>80</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -6178,19 +6182,19 @@
         <v>80</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
@@ -6199,10 +6203,10 @@
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>80</v>
@@ -6216,10 +6220,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6230,7 +6234,7 @@
         <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>80</v>
@@ -6242,19 +6246,19 @@
         <v>80</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q37" t="s" s="2">
         <v>80</v>
@@ -6279,13 +6283,13 @@
         <v>80</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AB37" t="s" s="2">
         <v>80</v>
@@ -6303,31 +6307,31 @@
         <v>80</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>80</v>
@@ -6341,10 +6345,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6367,19 +6371,19 @@
         <v>80</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q38" t="s" s="2">
         <v>80</v>
@@ -6404,13 +6408,13 @@
         <v>80</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AB38" t="s" s="2">
         <v>80</v>
@@ -6428,7 +6432,7 @@
         <v>80</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>78</v>
@@ -6440,19 +6444,19 @@
         <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>80</v>
@@ -6466,10 +6470,10 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6480,7 +6484,7 @@
         <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>80</v>
@@ -6492,17 +6496,17 @@
         <v>80</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q39" t="s" s="2">
         <v>80</v>
@@ -6551,19 +6555,19 @@
         <v>80</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>80</v>
@@ -6575,7 +6579,7 @@
         <v>80</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>80</v>
@@ -6589,10 +6593,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6603,7 +6607,7 @@
         <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>80</v>
@@ -6615,13 +6619,13 @@
         <v>80</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -6672,19 +6676,19 @@
         <v>80</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>80</v>
@@ -6693,10 +6697,10 @@
         <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>80</v>
@@ -6710,10 +6714,10 @@
         <v>3</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6733,19 +6737,19 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
@@ -6795,7 +6799,7 @@
         <v>80</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>78</v>
@@ -6807,7 +6811,7 @@
         <v>80</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>80</v>
@@ -6816,10 +6820,10 @@
         <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>80</v>
@@ -6833,10 +6837,10 @@
         <v>3</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6856,19 +6860,19 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
@@ -6918,7 +6922,7 @@
         <v>80</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>78</v>
@@ -6930,7 +6934,7 @@
         <v>80</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>80</v>
@@ -6939,10 +6943,10 @@
         <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>80</v>
@@ -6956,10 +6960,10 @@
         <v>3</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6979,22 +6983,22 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q43" t="s" s="2">
         <v>80</v>
@@ -7043,7 +7047,7 @@
         <v>80</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>78</v>
@@ -7055,7 +7059,7 @@
         <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
@@ -7064,10 +7068,10 @@
         <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>80</v>
@@ -7081,10 +7085,10 @@
         <v>3</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7095,7 +7099,7 @@
         <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>80</v>
@@ -7107,13 +7111,13 @@
         <v>80</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -7164,13 +7168,13 @@
         <v>80</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>80</v>
@@ -7188,7 +7192,7 @@
         <v>80</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>80</v>
@@ -7202,14 +7206,14 @@
         <v>3</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" t="s" s="2">
@@ -7228,16 +7232,16 @@
         <v>80</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
@@ -7287,7 +7291,7 @@
         <v>80</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>78</v>
@@ -7299,7 +7303,7 @@
         <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>80</v>
@@ -7311,7 +7315,7 @@
         <v>80</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>80</v>
@@ -7325,14 +7329,14 @@
         <v>3</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" t="s" s="2">
@@ -7345,25 +7349,25 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q46" t="s" s="2">
         <v>80</v>
@@ -7412,7 +7416,7 @@
         <v>80</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>78</v>
@@ -7424,7 +7428,7 @@
         <v>80</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>80</v>
@@ -7436,7 +7440,7 @@
         <v>80</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>80</v>
@@ -7450,10 +7454,10 @@
         <v>3</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7461,10 +7465,10 @@
       </c>
       <c r="F47" s="2"/>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>80</v>
@@ -7473,22 +7477,22 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q47" t="s" s="2">
         <v>80</v>
@@ -7513,13 +7517,13 @@
         <v>80</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AB47" t="s" s="2">
         <v>80</v>
@@ -7537,34 +7541,34 @@
         <v>80</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AQ47" t="s" s="2">
         <v>80</v>
@@ -7575,10 +7579,10 @@
         <v>3</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7589,7 +7593,7 @@
         <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>80</v>
@@ -7598,22 +7602,22 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P48" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q48" t="s" s="2">
         <v>80</v>
@@ -7662,37 +7666,37 @@
         <v>80</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49">
@@ -7700,10 +7704,10 @@
         <v>3</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7714,7 +7718,7 @@
         <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>80</v>
@@ -7726,19 +7730,19 @@
         <v>80</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q49" t="s" s="2">
         <v>80</v>
@@ -7763,13 +7767,13 @@
         <v>80</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AB49" t="s" s="2">
         <v>80</v>
@@ -7787,19 +7791,19 @@
         <v>80</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
@@ -7808,10 +7812,10 @@
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>80</v>
@@ -7825,14 +7829,14 @@
         <v>3</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" t="s" s="2">
@@ -7851,19 +7855,19 @@
         <v>80</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q50" t="s" s="2">
         <v>80</v>
@@ -7888,13 +7892,13 @@
         <v>80</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AB50" t="s" s="2">
         <v>80</v>
@@ -7912,7 +7916,7 @@
         <v>80</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>78</v>
@@ -7924,25 +7928,25 @@
         <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ50" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="51">
@@ -7950,10 +7954,10 @@
         <v>3</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7976,19 +7980,19 @@
         <v>80</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q51" t="s" s="2">
         <v>80</v>
@@ -8037,7 +8041,7 @@
         <v>80</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
@@ -8049,7 +8053,7 @@
         <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
@@ -8058,10 +8062,10 @@
         <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>80</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-09T16:27:52+00:00</t>
+    <t>2023-01-09T16:42:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-09T16:42:52+00:00</t>
+    <t>2023-01-09T16:59:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-09T16:59:54+00:00</t>
+    <t>2023-01-09T17:13:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-09T17:13:42+00:00</t>
+    <t>2023-01-10T12:40:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T12:40:13+00:00</t>
+    <t>2023-01-13T18:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T18:37:09+00:00</t>
+    <t>2023-01-14T16:17:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-14T16:17:33+00:00</t>
+    <t>2023-01-14T22:54:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="349">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-14T22:54:21+00:00</t>
+    <t>2023-01-20T16:43:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -226,24 +226,6 @@
   </si>
   <si>
     <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Workflow Pattern</t>
-  </si>
-  <si>
-    <t>Mapping: SNOMED CT Concept Domain Binding</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: SNOMED CT Attribute Binding</t>
   </si>
   <si>
     <t>Vital Signs
@@ -272,18 +254,6 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity|</t>
-  </si>
-  <si>
-    <t>OBX</t>
-  </si>
-  <si>
-    <t>Observation[classCode=OBS, moodCode=EVN]</t>
-  </si>
-  <si>
     <t>Observation.id</t>
   </si>
   <si>
@@ -399,9 +369,6 @@
     <t>DomainResource.text</t>
   </si>
   <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
     <t>Observation.contained</t>
   </si>
   <si>
@@ -425,9 +392,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Observation.extension</t>
   </si>
   <si>
@@ -487,18 +451,6 @@
     <t>Allows observations to be distinguished and referenced.</t>
   </si>
   <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
     <t>Observation.basedOn</t>
   </si>
   <si>
@@ -519,15 +471,6 @@
     <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
   </si>
   <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
-  </si>
-  <si>
     <t>Observation.partOf</t>
   </si>
   <si>
@@ -548,15 +491,6 @@
     <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
   </si>
   <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
     <t>Observation.status</t>
   </si>
   <si>
@@ -579,21 +513,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
   </si>
   <si>
     <t>Observation.category</t>
@@ -618,12 +537,6 @@
     <t>http://hl7.eu/fhir/ig/gravitate-health-ips/ValueSet/PDcategoryVS</t>
   </si>
   <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
     <t>Observation.code</t>
   </si>
   <si>
@@ -646,24 +559,6 @@
     <t>http://hl7.eu/fhir/ig/gravitate-health-ips/ValueSet/PDtypeVS</t>
   </si>
   <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>116680003 |Is a|</t>
-  </si>
-  <si>
     <t>Observation.subject</t>
   </si>
   <si>
@@ -683,18 +578,6 @@
     <t>Observations have no value if you don't know who or what they're about.</t>
   </si>
   <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>participation[typeCode=RTGT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
     <t>Observation.focus</t>
   </si>
   <si>
@@ -711,9 +594,6 @@
     <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
   </si>
   <si>
-    <t>participation[typeCode=SBJ]</t>
-  </si>
-  <si>
     <t>Observation.encounter</t>
   </si>
   <si>
@@ -737,18 +617,6 @@
     <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
   </si>
   <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>PV1</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
     <t>Observation.effective[x]</t>
   </si>
   <si>
@@ -772,18 +640,6 @@
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
   </si>
   <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>OBX-14, and/or OBX-19 after v2.4  (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
     <t>Observation.issued</t>
   </si>
   <si>
@@ -800,15 +656,6 @@
     <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
   </si>
   <si>
-    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
     <t>Observation.performer</t>
   </si>
   <si>
@@ -825,18 +672,6 @@
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
   </si>
   <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
-  </si>
-  <si>
-    <t>participation[typeCode=PRF]</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
     <t>Observation.value[x]</t>
   </si>
   <si>
@@ -860,18 +695,6 @@
 </t>
   </si>
   <si>
-    <t>&lt; 441742003 |Evaluation finding|</t>
-  </si>
-  <si>
-    <t>OBX.2, OBX.5, OBX.6</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>363714003 |Interprets|</t>
-  </si>
-  <si>
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
@@ -901,9 +724,6 @@
 </t>
   </si>
   <si>
-    <t>value.nullFlavor</t>
-  </si>
-  <si>
     <t>Observation.interpretation</t>
   </si>
   <si>
@@ -929,18 +749,6 @@
     <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
   </si>
   <si>
-    <t>&lt; 260245000 |Findings values|</t>
-  </si>
-  <si>
-    <t>OBX-8</t>
-  </si>
-  <si>
-    <t>interpretationCode</t>
-  </si>
-  <si>
-    <t>363713009 |Has interpretation|</t>
-  </si>
-  <si>
     <t>Observation.note</t>
   </si>
   <si>
@@ -960,12 +768,6 @@
     <t>Need to be able to provide free text additional information.</t>
   </si>
   <si>
-    <t>NTE.3 (partner NTE to OBX, or sometimes another (child?) OBX)</t>
-  </si>
-  <si>
-    <t>subjectOf.observationEvent[code="annotation"].value</t>
-  </si>
-  <si>
     <t>Observation.bodySite</t>
   </si>
   <si>
@@ -988,18 +790,6 @@
     <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
-    <t>&lt; 123037004 |Body structure|</t>
-  </si>
-  <si>
-    <t>OBX-20</t>
-  </si>
-  <si>
-    <t>targetSiteCode</t>
-  </si>
-  <si>
-    <t>718497002 |Inherent location|</t>
-  </si>
-  <si>
     <t>Observation.method</t>
   </si>
   <si>
@@ -1019,12 +809,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
-  </si>
-  <si>
-    <t>OBX-17</t>
-  </si>
-  <si>
-    <t>methodCode</t>
   </si>
   <si>
     <t>Observation.specimen</t>
@@ -1043,18 +827,6 @@
     <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).</t>
   </si>
   <si>
-    <t>&lt; 123038009 |Specimen|</t>
-  </si>
-  <si>
-    <t>SPM segment</t>
-  </si>
-  <si>
-    <t>participation[typeCode=SPC].specimen</t>
-  </si>
-  <si>
-    <t>704319004 |Inherent in|</t>
-  </si>
-  <si>
     <t>Observation.device</t>
   </si>
   <si>
@@ -1071,18 +843,6 @@
     <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.</t>
   </si>
   <si>
-    <t>&lt; 49062001 |Device|</t>
-  </si>
-  <si>
-    <t>OBX-17 / PRT -10</t>
-  </si>
-  <si>
-    <t>participation[typeCode=DEV]</t>
-  </si>
-  <si>
-    <t>424226004 |Using device|</t>
-  </si>
-  <si>
     <t>Observation.referenceRange</t>
   </si>
   <si>
@@ -1106,12 +866,6 @@
 obs-3:Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}</t>
   </si>
   <si>
-    <t>OBX.7</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode=REFV]/target[classCode=OBS, moodCode=EVN]</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
@@ -1128,9 +882,6 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.extension</t>
   </si>
   <si>
@@ -1174,12 +925,6 @@
 </t>
   </si>
   <si>
-    <t>OBX-7</t>
-  </si>
-  <si>
-    <t>value:IVL_PQ.low</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.high</t>
   </si>
   <si>
@@ -1189,9 +934,6 @@
     <t>The value of the high bound of the reference range.  The high bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the high bound is omitted,  it is assumed to be meaningless (e.g. reference range is &gt;= 2.3).</t>
   </si>
   <si>
-    <t>value:IVL_PQ.high</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.type</t>
   </si>
   <si>
@@ -1211,18 +953,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
-  </si>
-  <si>
-    <t>&lt; 260245000 |Findings values| OR  -&lt; 365860008 |General clinical state finding| -OR -&lt; 250171008 |Clinical history or observation findings| OR  -&lt; 415229000 |Racial group| OR -&lt; 365400002 |Finding of puberty stage| OR-&lt; 443938003 |Procedure carried out on subject|</t>
-  </si>
-  <si>
-    <t>OBX-10</t>
   </si>
   <si>
     <t>Observation.referenceRange.appliesTo</t>
@@ -1262,9 +992,6 @@
     <t>Some analytes vary greatly over age.</t>
   </si>
   <si>
-    <t>outboundRelationship[typeCode=PRCN].targetObservationCriterion[code="age"].value</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.text</t>
   </si>
   <si>
@@ -1272,9 +999,6 @@
   </si>
   <si>
     <t>Text based reference range in an observation which may be used when a quantitative range is not appropriate for an observation.  An example would be a reference value of "Negative" or a list or table of "normals".</t>
-  </si>
-  <si>
-    <t>value:ST</t>
   </si>
   <si>
     <t>Observation.hasMember</t>
@@ -1293,12 +1017,6 @@
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
-    <t>Relationships established by OBX-4 usage</t>
-  </si>
-  <si>
-    <t>outBoundRelationship</t>
-  </si>
-  <si>
     <t>Observation.derivedFrom</t>
   </si>
   <si>
@@ -1315,9 +1033,6 @@
     <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.</t>
   </si>
   <si>
-    <t>.targetObservation</t>
-  </si>
-  <si>
     <t>Observation.component</t>
   </si>
   <si>
@@ -1333,12 +1048,6 @@
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
-    <t>containment by OBX-4?</t>
-  </si>
-  <si>
-    <t>outBoundRelationship[typeCode=COMP]</t>
-  </si>
-  <si>
     <t>Observation.component.id</t>
   </si>
   <si>
@@ -1364,10 +1073,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR -&lt; 386053000 |Evaluation procedure|</t>
   </si>
   <si>
     <t>Observation.component.value[x]</t>
@@ -1381,9 +1086,6 @@
   </si>
   <si>
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
   </si>
   <si>
     <t>Observation.component.dataAbsentReason</t>
@@ -1711,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ51"/>
+  <dimension ref="A1:AK51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1755,12 +1457,6 @@
     <col min="33" max="33" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="97.1171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="247.40625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1875,24 +1571,6 @@
       <c r="AK1" t="s" s="1">
         <v>70</v>
       </c>
-      <c r="AL1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AO1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AP1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AQ1" t="s" s="1">
-        <v>76</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -1906,115 +1584,97 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="O2" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="O2" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>28</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AN2" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AO2" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AP2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ2" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -2022,122 +1682,104 @@
         <v>3</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="O3" t="s" s="2">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="T3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AJ3" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ3" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -2145,120 +1787,102 @@
         <v>3</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N4" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="T4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AJ4" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ4" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
@@ -2266,122 +1890,104 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI5" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="T5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AJ5" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ5" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
@@ -2389,122 +1995,104 @@
         <v>3</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="T6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AJ6" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ6" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -2512,122 +2100,104 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI7" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="T7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AJ7" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO7" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AP7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ7" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
@@ -2635,122 +2205,104 @@
         <v>3</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO8" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AP8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ8" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
@@ -2758,122 +2310,104 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AP9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ9" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
@@ -2881,124 +2415,106 @@
         <v>3</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="Q10" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AP10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ10" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
@@ -3006,122 +2522,104 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="Q11" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AQ11" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
@@ -3129,122 +2627,104 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="Q12" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AO12" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AP12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ12" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
@@ -3252,122 +2732,104 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AP13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ13" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
@@ -3375,124 +2837,106 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="Q14" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AH14" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="T14" t="s" s="2">
+      <c r="AI14" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="U14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AJ14" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AP14" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AQ14" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
@@ -3500,122 +2944,104 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="Q15" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" t="s" s="2">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AQ15" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
@@ -3623,122 +3049,104 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="Q16" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" t="s" s="2">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="AB16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AH16" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AC16" t="s" s="2">
+      <c r="AI16" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AD16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AJ16" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AQ16" t="s" s="2">
-        <v>208</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
@@ -3746,124 +3154,106 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="Q17" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI17" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="T17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AJ17" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AQ17" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18">
@@ -3871,122 +3261,104 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AQ18" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19">
@@ -3994,124 +3366,106 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="Q19" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI19" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="T19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AJ19" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AQ19" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
@@ -4119,124 +3473,106 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="Q20" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R20" s="2"/>
       <c r="S20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI20" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="T20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AJ20" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AP20" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AQ20" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
@@ -4244,122 +3580,104 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R21" s="2"/>
       <c r="S21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI21" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="T21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AJ21" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AQ21" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
@@ -4367,122 +3685,104 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>257</v>
+        <v>206</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>258</v>
+        <v>207</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>259</v>
+        <v>208</v>
       </c>
       <c r="Q22" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R22" s="2"/>
       <c r="S22" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AQ22" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
@@ -4490,124 +3790,106 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="Q23" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R23" s="2"/>
       <c r="S23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI23" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="T23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AJ23" t="s" s="2">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ23" t="s" s="2">
-        <v>274</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24">
@@ -4615,124 +3897,106 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>276</v>
+        <v>217</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>278</v>
+        <v>219</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>279</v>
+        <v>220</v>
       </c>
       <c r="Q24" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R24" s="2"/>
       <c r="S24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI24" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="T24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AJ24" t="s" s="2">
-        <v>283</v>
+        <v>224</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ24" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
@@ -4740,124 +4004,106 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>285</v>
+        <v>225</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>285</v>
+        <v>225</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>286</v>
+        <v>226</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="Q25" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R25" s="2"/>
       <c r="S25" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>285</v>
+        <v>225</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ25" t="s" s="2">
-        <v>296</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26">
@@ -4865,124 +4111,106 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>297</v>
+        <v>233</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>297</v>
+        <v>233</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>298</v>
+        <v>234</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>299</v>
+        <v>235</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>300</v>
+        <v>236</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>301</v>
+        <v>237</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>302</v>
+        <v>238</v>
       </c>
       <c r="Q26" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R26" s="2"/>
       <c r="S26" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>297</v>
+        <v>233</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ26" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27">
@@ -4990,122 +4218,104 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>305</v>
+        <v>239</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>305</v>
+        <v>239</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>306</v>
+        <v>240</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>307</v>
+        <v>241</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>308</v>
+        <v>242</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R27" s="2"/>
       <c r="S27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI27" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="T27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AJ27" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ27" t="s" s="2">
-        <v>315</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28">
@@ -5113,124 +4323,106 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>316</v>
+        <v>246</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>316</v>
+        <v>246</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>317</v>
+        <v>247</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>318</v>
+        <v>248</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>319</v>
+        <v>249</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="Q28" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI28" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="T28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AJ28" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ28" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29">
@@ -5238,122 +4430,104 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>325</v>
+        <v>253</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>325</v>
+        <v>253</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>326</v>
+        <v>254</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>327</v>
+        <v>255</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>328</v>
+        <v>256</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>329</v>
+        <v>257</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R29" s="2"/>
       <c r="S29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI29" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="T29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AJ29" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ29" t="s" s="2">
-        <v>333</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30">
@@ -5361,122 +4535,104 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>335</v>
+        <v>259</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>336</v>
+        <v>260</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>337</v>
+        <v>261</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>338</v>
+        <v>262</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R30" s="2"/>
       <c r="S30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI30" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="T30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AJ30" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ30" t="s" s="2">
-        <v>342</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31">
@@ -5484,124 +4640,106 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>343</v>
+        <v>263</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>343</v>
+        <v>263</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>344</v>
+        <v>264</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>345</v>
+        <v>265</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>346</v>
+        <v>266</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>347</v>
+        <v>267</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>348</v>
+        <v>268</v>
       </c>
       <c r="Q31" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>343</v>
+        <v>263</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ31" t="s" s="2">
-        <v>80</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32">
@@ -5609,120 +4747,102 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>352</v>
+        <v>270</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>352</v>
+        <v>270</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>353</v>
+        <v>271</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>354</v>
+        <v>272</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>355</v>
+        <v>273</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R32" s="2"/>
       <c r="S32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI32" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="T32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AJ32" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ32" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33">
@@ -5730,122 +4850,104 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>358</v>
+        <v>275</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>358</v>
+        <v>275</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>359</v>
+        <v>276</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R33" s="2"/>
       <c r="S33" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>360</v>
+        <v>277</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ33" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34">
@@ -5853,124 +4955,106 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>361</v>
+        <v>278</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>361</v>
+        <v>278</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>362</v>
+        <v>279</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>363</v>
+        <v>280</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>364</v>
+        <v>281</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="Q34" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>365</v>
+        <v>282</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ34" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35">
@@ -5978,120 +5062,102 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>366</v>
+        <v>283</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>366</v>
+        <v>283</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>367</v>
+        <v>284</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>368</v>
+        <v>285</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>369</v>
+        <v>286</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R35" s="2"/>
       <c r="S35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI35" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="T35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AJ35" t="s" s="2">
-        <v>370</v>
+        <v>287</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ35" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36">
@@ -6099,120 +5165,102 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>373</v>
+        <v>288</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>373</v>
+        <v>288</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>367</v>
+        <v>284</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>374</v>
+        <v>289</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>375</v>
+        <v>290</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R36" s="2"/>
       <c r="S36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI36" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="T36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AJ36" t="s" s="2">
-        <v>370</v>
+        <v>287</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ36" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37">
@@ -6220,124 +5268,106 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>377</v>
+        <v>291</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>377</v>
+        <v>291</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>378</v>
+        <v>292</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>379</v>
+        <v>293</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>380</v>
+        <v>294</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>381</v>
+        <v>295</v>
       </c>
       <c r="Q37" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R37" s="2"/>
       <c r="S37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI37" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="T37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AJ37" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ37" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38">
@@ -6345,124 +5375,106 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>386</v>
+        <v>298</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>386</v>
+        <v>298</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>387</v>
+        <v>299</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>388</v>
+        <v>300</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>389</v>
+        <v>301</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>390</v>
+        <v>302</v>
       </c>
       <c r="Q38" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R38" s="2"/>
       <c r="S38" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>309</v>
+        <v>243</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>391</v>
+        <v>303</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>392</v>
+        <v>304</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>386</v>
+        <v>298</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ38" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39">
@@ -6470,122 +5482,104 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>393</v>
+        <v>305</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>393</v>
+        <v>305</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>394</v>
+        <v>306</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>395</v>
+        <v>307</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>396</v>
+        <v>308</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>397</v>
+        <v>309</v>
       </c>
       <c r="Q39" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI39" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="T39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AJ39" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ39" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40">
@@ -6593,120 +5587,102 @@
         <v>3</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>399</v>
+        <v>310</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>399</v>
+        <v>310</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>353</v>
+        <v>271</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>400</v>
+        <v>311</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>401</v>
+        <v>312</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R40" s="2"/>
       <c r="S40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="T40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AJ40" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ40" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41">
@@ -6714,122 +5690,104 @@
         <v>3</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>403</v>
+        <v>313</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>403</v>
+        <v>313</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>404</v>
+        <v>314</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>405</v>
+        <v>315</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>406</v>
+        <v>316</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>407</v>
+        <v>317</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R41" s="2"/>
       <c r="S41" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>403</v>
+        <v>313</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ41" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42">
@@ -6837,122 +5795,104 @@
         <v>3</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>410</v>
+        <v>318</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>410</v>
+        <v>318</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>411</v>
+        <v>319</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>412</v>
+        <v>320</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>413</v>
+        <v>321</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>414</v>
+        <v>322</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R42" s="2"/>
       <c r="S42" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>410</v>
+        <v>318</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ42" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43">
@@ -6960,124 +5900,106 @@
         <v>3</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>416</v>
+        <v>323</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>416</v>
+        <v>323</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>344</v>
+        <v>264</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>417</v>
+        <v>324</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>419</v>
+        <v>326</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>420</v>
+        <v>327</v>
       </c>
       <c r="Q43" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R43" s="2"/>
       <c r="S43" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>416</v>
+        <v>323</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ43" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44">
@@ -7085,120 +6007,102 @@
         <v>3</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>423</v>
+        <v>328</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>423</v>
+        <v>328</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>353</v>
+        <v>271</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>354</v>
+        <v>272</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>355</v>
+        <v>273</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R44" s="2"/>
       <c r="S44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI44" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="T44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AJ44" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AP44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ44" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45">
@@ -7206,122 +6110,104 @@
         <v>3</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>424</v>
+        <v>329</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>424</v>
+        <v>329</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>359</v>
+        <v>276</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R45" s="2"/>
       <c r="S45" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>360</v>
+        <v>277</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ45" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46">
@@ -7329,124 +6215,106 @@
         <v>3</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>425</v>
+        <v>330</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>425</v>
+        <v>330</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>362</v>
+        <v>279</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>363</v>
+        <v>280</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>364</v>
+        <v>281</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="Q46" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R46" s="2"/>
       <c r="S46" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>365</v>
+        <v>282</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AP46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ46" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47">
@@ -7454,124 +6322,106 @@
         <v>3</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>426</v>
+        <v>331</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>426</v>
+        <v>331</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>427</v>
+        <v>332</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>428</v>
+        <v>333</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>429</v>
+        <v>334</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="Q47" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R47" s="2"/>
       <c r="S47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AH47" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="T47" t="s" s="2">
+      <c r="AI47" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="U47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AJ47" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AQ47" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48">
@@ -7579,124 +6429,106 @@
         <v>3</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>433</v>
+        <v>337</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>433</v>
+        <v>337</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>434</v>
+        <v>338</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>435</v>
+        <v>339</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>436</v>
+        <v>340</v>
       </c>
       <c r="P48" t="s" s="2">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="Q48" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R48" s="2"/>
       <c r="S48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI48" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="T48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AJ48" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AP48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ48" t="s" s="2">
-        <v>274</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49">
@@ -7704,124 +6536,106 @@
         <v>3</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>438</v>
+        <v>341</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>438</v>
+        <v>341</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>439</v>
+        <v>342</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>440</v>
+        <v>343</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>441</v>
+        <v>344</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>279</v>
+        <v>220</v>
       </c>
       <c r="Q49" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R49" s="2"/>
       <c r="S49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI49" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="T49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AJ49" t="s" s="2">
-        <v>283</v>
+        <v>224</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ49" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50">
@@ -7829,124 +6643,106 @@
         <v>3</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>442</v>
+        <v>345</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>442</v>
+        <v>345</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>286</v>
+        <v>226</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="Q50" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R50" s="2"/>
       <c r="S50" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>442</v>
+        <v>345</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ50" t="s" s="2">
-        <v>296</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51">
@@ -7954,124 +6750,106 @@
         <v>3</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>443</v>
+        <v>346</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>443</v>
+        <v>346</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>444</v>
+        <v>347</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>445</v>
+        <v>348</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>347</v>
+        <v>267</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>348</v>
+        <v>268</v>
       </c>
       <c r="Q51" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R51" s="2"/>
       <c r="S51" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>443</v>
+        <v>346</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ51" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T16:43:49+00:00</t>
+    <t>2023-01-21T15:39:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-21T15:39:57+00:00</t>
+    <t>2023-01-23T12:20:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-23T12:20:33+00:00</t>
+    <t>2023-01-23T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
